--- a/tc.xlsx
+++ b/tc.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -70,13 +69,13 @@
     <t>Login with invalid credential using email</t>
   </si>
   <si>
-    <t>taltekcccc@yahoo.com</t>
-  </si>
-  <si>
     <t>Verify "The email and password combination you entered doesn't match." is present</t>
   </si>
   <si>
     <t>Assert If "TalentTEK Consulting" is present or not</t>
+  </si>
+  <si>
+    <t>Te$t1234wrong</t>
   </si>
 </sst>
 </file>
@@ -457,7 +456,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -535,7 +534,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -559,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -572,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -581,8 +580,8 @@
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>18</v>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
